--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655853.3355250926</v>
+        <v>559351.8163447329</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17543412.82000139</v>
+        <v>13011451.36259528</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5087320.615537856</v>
+        <v>7180067.787940056</v>
       </c>
     </row>
     <row r="11">
@@ -1369,23 +1369,23 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="C11" t="n">
+      <c r="G11" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>91.9483748188116</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>41.65645165993809</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S12" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T12" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>196.1164256317279</v>
       </c>
       <c r="V13" t="n">
-        <v>200.1889312620674</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W13" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="X13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="G14" t="n">
         <v>222.6571589824342</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>40.11104725630332</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>192.3881347568083</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.40792664341222</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>117.9703364375925</v>
       </c>
       <c r="U15" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="V15" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>69.81866415583937</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
-        <v>200.1889312620674</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X16" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>75.33220398914048</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>202.1336157944361</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.728290874919821</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.9116779448064</v>
+      </c>
+      <c r="U17" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>222.6571589824342</v>
-      </c>
-      <c r="H17" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120.7842216425874</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>93.51609054346645</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>222.6571589824342</v>
-      </c>
-      <c r="V18" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="W18" t="n">
-        <v>52.19174439437646</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.2853400886136</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>196.116425631728</v>
+      </c>
+      <c r="U19" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X19" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>205.8619066693557</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>36.38275638138374</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9690225888620725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1474030428659</v>
+        <v>145.8180423144089</v>
       </c>
       <c r="U21" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.50683356229617</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H22" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.8298553706975</v>
+        <v>76.06671009549375</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>215.4984668668601</v>
       </c>
       <c r="G23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S23" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W23" t="n">
-        <v>187.6039142396064</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>85.76782735219524</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S24" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.71133468091505</v>
       </c>
     </row>
     <row r="25">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>73.31244645466492</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.33036740307355</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>248.8950473907584</v>
       </c>
       <c r="G26" t="n">
-        <v>59.49308849143546</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>63.22137936635514</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>156.0053783754247</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>134.9456550672844</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>29.71133468091505</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>164.1582182912146</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>219.2267577417799</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="G29" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>219.2267577417799</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.9100965205265</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>40.7418687845035</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T31" t="n">
-        <v>223.4866593014432</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="V31" t="n">
-        <v>157.3300707449279</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>13.39690237108233</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,14 +3037,14 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>95.47645793738747</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W32" t="n">
-        <v>219.2267577417799</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>134.126734365595</v>
+        <v>52.58379132639335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>248.8950473907584</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.947399967071</v>
+        <v>47.78057808026359</v>
       </c>
       <c r="H34" t="n">
         <v>152.9488030094653</v>
@@ -3210,7 +3210,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J34" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>166.1702608124134</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>46.12823741901136</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>196.1164256317279</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>92.65806464584972</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>43.10864447041704</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S36" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>92.50764178565574</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.636504462025812</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H38" t="n">
-        <v>205.8619066693557</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>192.3881347568083</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>7.317903633380382</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.41246273729062</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>82.57346213723656</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>66.50976659689555</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>192.3881347568083</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>115.929761110014</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>65.55553384604595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.923883072383902</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>127.7589881444739</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>222.6571589824335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824335</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>46.12823741901004</v>
       </c>
       <c r="W44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>46.12823741901136</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.53173709245242</v>
       </c>
       <c r="C45" t="n">
-        <v>8.633473053746282</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I45" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>222.6571589824335</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>47.50095261351562</v>
+        <v>52.62495559801023</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="D11" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="E11" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="F11" t="n">
         <v>242.7187939129728</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17.81257271859474</v>
       </c>
       <c r="G11" t="n">
         <v>17.81257271859474</v>
@@ -5041,22 +5041,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J11" t="n">
-        <v>34.05974234075597</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K11" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L11" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711343</v>
       </c>
       <c r="M11" t="n">
-        <v>415.5865117704858</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734929</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974409</v>
       </c>
       <c r="P11" t="n">
         <v>861.9898061237596</v>
@@ -5071,19 +5071,19 @@
         <v>890.6286359297369</v>
       </c>
       <c r="T11" t="n">
-        <v>890.6286359297369</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U11" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V11" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="W11" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X11" t="n">
-        <v>692.5312363017288</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y11" t="n">
         <v>467.6250151073508</v>
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.6897190002226</v>
+        <v>59.88979661752211</v>
       </c>
       <c r="C12" t="n">
-        <v>110.6897190002226</v>
+        <v>59.88979661752211</v>
       </c>
       <c r="D12" t="n">
-        <v>17.81257271859474</v>
+        <v>59.88979661752211</v>
       </c>
       <c r="E12" t="n">
-        <v>17.81257271859474</v>
+        <v>59.88979661752211</v>
       </c>
       <c r="F12" t="n">
         <v>17.81257271859474</v>
@@ -5144,28 +5144,28 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686477</v>
       </c>
       <c r="S12" t="n">
-        <v>740.5660293323212</v>
+        <v>717.4625377712321</v>
       </c>
       <c r="T12" t="n">
-        <v>543.4474404001335</v>
+        <v>717.4625377712321</v>
       </c>
       <c r="U12" t="n">
-        <v>318.5412192057555</v>
+        <v>717.4625377712321</v>
       </c>
       <c r="V12" t="n">
-        <v>318.5412192057555</v>
+        <v>492.556316576854</v>
       </c>
       <c r="W12" t="n">
-        <v>318.5412192057555</v>
+        <v>267.650095382476</v>
       </c>
       <c r="X12" t="n">
-        <v>110.6897190002226</v>
+        <v>267.650095382476</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.6897190002226</v>
+        <v>59.88979661752211</v>
       </c>
     </row>
     <row r="13">
@@ -5202,22 +5202,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K13" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L13" t="n">
-        <v>296.7126787168869</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M13" t="n">
-        <v>497.8506719203921</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N13" t="n">
-        <v>699.6406696328909</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O13" t="n">
-        <v>870.0100976634538</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P13" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q13" t="n">
         <v>890.6286359297369</v>
@@ -5229,19 +5229,19 @@
         <v>890.6286359297369</v>
       </c>
       <c r="T13" t="n">
-        <v>890.6286359297369</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="U13" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V13" t="n">
-        <v>688.4175942508809</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="W13" t="n">
-        <v>463.5113730565029</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="X13" t="n">
-        <v>238.6051518621248</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y13" t="n">
         <v>17.81257271859474</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C14" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="D14" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E14" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="F14" t="n">
         <v>242.7187939129728</v>
@@ -5302,28 +5302,28 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R14" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S14" t="n">
-        <v>886.86268555103</v>
+        <v>733.0474456515301</v>
       </c>
       <c r="T14" t="n">
-        <v>886.86268555103</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U14" t="n">
-        <v>886.86268555103</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="V14" t="n">
         <v>692.5312363017288</v>
       </c>
       <c r="W14" t="n">
+        <v>692.5312363017288</v>
+      </c>
+      <c r="X14" t="n">
+        <v>692.5312363017288</v>
+      </c>
+      <c r="Y14" t="n">
         <v>467.6250151073508</v>
-      </c>
-      <c r="X14" t="n">
-        <v>467.6250151073508</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>242.7187939129728</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>215.9099723466028</v>
+        <v>338.8001599728368</v>
       </c>
       <c r="C15" t="n">
-        <v>41.45694306547577</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="D15" t="n">
-        <v>41.45694306547577</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="E15" t="n">
-        <v>17.81257271859474</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="F15" t="n">
         <v>17.81257271859474</v>
@@ -5360,16 +5360,16 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K15" t="n">
-        <v>80.34372630892088</v>
+        <v>124.7714519989688</v>
       </c>
       <c r="L15" t="n">
-        <v>210.7471202899191</v>
+        <v>255.1748459799669</v>
       </c>
       <c r="M15" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N15" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510018</v>
       </c>
       <c r="O15" t="n">
         <v>769.2186132763801</v>
@@ -5387,22 +5387,22 @@
         <v>890.6286359297369</v>
       </c>
       <c r="T15" t="n">
-        <v>890.6286359297369</v>
+        <v>771.4666799321687</v>
       </c>
       <c r="U15" t="n">
-        <v>665.7224147353588</v>
+        <v>546.5604587377907</v>
       </c>
       <c r="V15" t="n">
-        <v>440.8161935409808</v>
+        <v>546.5604587377907</v>
       </c>
       <c r="W15" t="n">
-        <v>215.9099723466028</v>
+        <v>546.5604587377907</v>
       </c>
       <c r="X15" t="n">
-        <v>215.9099723466028</v>
+        <v>546.5604587377907</v>
       </c>
       <c r="Y15" t="n">
-        <v>215.9099723466028</v>
+        <v>338.8001599728368</v>
       </c>
     </row>
     <row r="16">
@@ -5439,19 +5439,19 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K16" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L16" t="n">
-        <v>198.7269740270977</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M16" t="n">
-        <v>399.8649672306029</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N16" t="n">
-        <v>601.6549649431017</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O16" t="n">
-        <v>772.0243929736647</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P16" t="n">
         <v>890.6286359297369</v>
@@ -5460,28 +5460,28 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R16" t="n">
-        <v>890.6286359297369</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="S16" t="n">
-        <v>688.4175942508809</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="T16" t="n">
-        <v>463.5113730565029</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="U16" t="n">
-        <v>463.5113730565029</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="V16" t="n">
-        <v>463.5113730565029</v>
+        <v>534.0352762442194</v>
       </c>
       <c r="W16" t="n">
-        <v>463.5113730565029</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="X16" t="n">
-        <v>238.6051518621248</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.81257271859474</v>
+        <v>88.33647590631128</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.6286359297367</v>
+        <v>221.9879422079241</v>
       </c>
       <c r="C17" t="n">
-        <v>890.6286359297367</v>
+        <v>221.9879422079241</v>
       </c>
       <c r="D17" t="n">
-        <v>890.6286359297367</v>
+        <v>221.9879422079241</v>
       </c>
       <c r="E17" t="n">
-        <v>814.5355005871705</v>
+        <v>221.9879422079241</v>
       </c>
       <c r="F17" t="n">
-        <v>589.6292793927926</v>
+        <v>221.9879422079241</v>
       </c>
       <c r="G17" t="n">
-        <v>364.7230581984145</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H17" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I17" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J17" t="n">
-        <v>34.05974234075606</v>
+        <v>34.05974234075562</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061083</v>
       </c>
       <c r="L17" t="n">
-        <v>239.204631471134</v>
+        <v>239.2046314711337</v>
       </c>
       <c r="M17" t="n">
-        <v>415.5865117704857</v>
+        <v>415.5865117704855</v>
       </c>
       <c r="N17" t="n">
-        <v>599.4362436734925</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974407</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237594</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R17" t="n">
-        <v>890.6286359297367</v>
+        <v>886.86268555103</v>
       </c>
       <c r="S17" t="n">
-        <v>890.6286359297367</v>
+        <v>886.86268555103</v>
       </c>
       <c r="T17" t="n">
-        <v>890.6286359297367</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="U17" t="n">
-        <v>890.6286359297367</v>
+        <v>446.8941634023021</v>
       </c>
       <c r="V17" t="n">
-        <v>890.6286359297367</v>
+        <v>446.8941634023021</v>
       </c>
       <c r="W17" t="n">
-        <v>890.6286359297367</v>
+        <v>446.8941634023021</v>
       </c>
       <c r="X17" t="n">
-        <v>890.6286359297367</v>
+        <v>446.8941634023021</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.6286359297367</v>
+        <v>221.9879422079241</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.81257271859473</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="C18" t="n">
-        <v>17.81257271859473</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="D18" t="n">
-        <v>17.81257271859473</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="E18" t="n">
-        <v>17.81257271859473</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="F18" t="n">
-        <v>17.81257271859473</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="G18" t="n">
-        <v>17.81257271859473</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H18" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I18" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J18" t="n">
-        <v>17.81257271859473</v>
+        <v>62.24029840864262</v>
       </c>
       <c r="K18" t="n">
-        <v>94.82091556003496</v>
+        <v>124.7714519989688</v>
       </c>
       <c r="L18" t="n">
-        <v>225.2243095410331</v>
+        <v>255.1748459799669</v>
       </c>
       <c r="M18" t="n">
-        <v>396.7557877583918</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N18" t="n">
-        <v>617.1863751510016</v>
+        <v>617.1863751510018</v>
       </c>
       <c r="O18" t="n">
-        <v>769.2186132763799</v>
+        <v>769.2186132763801</v>
       </c>
       <c r="P18" t="n">
-        <v>871.9048215275938</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R18" t="n">
-        <v>867.5251443686475</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S18" t="n">
-        <v>717.4625377712318</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T18" t="n">
-        <v>520.3439488390441</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U18" t="n">
-        <v>295.4377276446661</v>
+        <v>796.1679384110839</v>
       </c>
       <c r="V18" t="n">
-        <v>70.53150645028813</v>
+        <v>796.1679384110839</v>
       </c>
       <c r="W18" t="n">
-        <v>17.81257271859473</v>
+        <v>571.2617172167058</v>
       </c>
       <c r="X18" t="n">
-        <v>17.81257271859473</v>
+        <v>571.2617172167058</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.81257271859473</v>
+        <v>571.2617172167058</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C19" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D19" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E19" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F19" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G19" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H19" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I19" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J19" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K19" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L19" t="n">
-        <v>195.0714213037276</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M19" t="n">
-        <v>396.2094145072327</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N19" t="n">
-        <v>597.9994122197315</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O19" t="n">
-        <v>768.3688402502945</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P19" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R19" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S19" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T19" t="n">
-        <v>665.7224147353587</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U19" t="n">
-        <v>665.7224147353587</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V19" t="n">
-        <v>665.7224147353587</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="W19" t="n">
-        <v>665.7224147353587</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="X19" t="n">
-        <v>440.8161935409807</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y19" t="n">
-        <v>440.8161935409807</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="C20" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="D20" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="E20" t="n">
-        <v>225.7538925866309</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="F20" t="n">
-        <v>17.81257271859473</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="G20" t="n">
-        <v>17.81257271859473</v>
+        <v>242.718793912973</v>
       </c>
       <c r="H20" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I20" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05974234075606</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K20" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061093</v>
       </c>
       <c r="L20" t="n">
-        <v>239.2046314711338</v>
+        <v>239.2046314711347</v>
       </c>
       <c r="M20" t="n">
-        <v>415.5865117704855</v>
+        <v>415.5865117704864</v>
       </c>
       <c r="N20" t="n">
-        <v>599.4362436734921</v>
+        <v>599.436243673493</v>
       </c>
       <c r="O20" t="n">
-        <v>759.7050708974402</v>
+        <v>759.7050708974411</v>
       </c>
       <c r="P20" t="n">
-        <v>861.9898061237594</v>
+        <v>861.9898061237603</v>
       </c>
       <c r="Q20" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R20" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S20" t="n">
-        <v>890.6286359297367</v>
+        <v>729.281495272824</v>
       </c>
       <c r="T20" t="n">
-        <v>675.5663349753868</v>
+        <v>729.281495272824</v>
       </c>
       <c r="U20" t="n">
-        <v>675.5663349753868</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="V20" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="W20" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="X20" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="Y20" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073511</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.81257271859473</v>
+        <v>177.0500277240503</v>
       </c>
       <c r="C21" t="n">
-        <v>17.81257271859473</v>
+        <v>177.0500277240503</v>
       </c>
       <c r="D21" t="n">
-        <v>17.81257271859473</v>
+        <v>177.0500277240503</v>
       </c>
       <c r="E21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J21" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K21" t="n">
-        <v>80.34372630892088</v>
+        <v>80.34372630892089</v>
       </c>
       <c r="L21" t="n">
         <v>210.7471202899191</v>
       </c>
       <c r="M21" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973262</v>
       </c>
       <c r="N21" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510025</v>
       </c>
       <c r="O21" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763808</v>
       </c>
       <c r="P21" t="n">
-        <v>871.9048215275938</v>
+        <v>871.9048215275947</v>
       </c>
       <c r="Q21" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R21" t="n">
-        <v>890.6286359297367</v>
+        <v>867.5251443686484</v>
       </c>
       <c r="S21" t="n">
-        <v>890.6286359297367</v>
+        <v>717.4625377712327</v>
       </c>
       <c r="T21" t="n">
-        <v>693.5100469975489</v>
+        <v>570.1715859384965</v>
       </c>
       <c r="U21" t="n">
-        <v>468.6038258031709</v>
+        <v>345.2653647441183</v>
       </c>
       <c r="V21" t="n">
-        <v>243.697604608793</v>
+        <v>345.2653647441183</v>
       </c>
       <c r="W21" t="n">
-        <v>18.79138341441501</v>
+        <v>345.2653647441183</v>
       </c>
       <c r="X21" t="n">
-        <v>18.79138341441501</v>
+        <v>345.2653647441183</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.79138341441501</v>
+        <v>345.2653647441183</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.7196911108502</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="C22" t="n">
-        <v>682.7196911108502</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="D22" t="n">
-        <v>635.7430915529753</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="E22" t="n">
-        <v>487.8299979705822</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="F22" t="n">
-        <v>340.9400504726718</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="G22" t="n">
-        <v>172.306313132196</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H22" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I22" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J22" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K22" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L22" t="n">
-        <v>195.0714213037276</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M22" t="n">
-        <v>396.2094145072327</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N22" t="n">
-        <v>597.9994122197315</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O22" t="n">
-        <v>768.3688402502945</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P22" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q22" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R22" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S22" t="n">
-        <v>682.7196911108502</v>
+        <v>813.7935752272186</v>
       </c>
       <c r="T22" t="n">
-        <v>682.7196911108502</v>
+        <v>813.7935752272186</v>
       </c>
       <c r="U22" t="n">
-        <v>682.7196911108502</v>
+        <v>813.7935752272186</v>
       </c>
       <c r="V22" t="n">
-        <v>682.7196911108502</v>
+        <v>813.7935752272186</v>
       </c>
       <c r="W22" t="n">
-        <v>682.7196911108502</v>
+        <v>588.8873540328404</v>
       </c>
       <c r="X22" t="n">
-        <v>682.7196911108502</v>
+        <v>588.8873540328404</v>
       </c>
       <c r="Y22" t="n">
-        <v>682.7196911108502</v>
+        <v>368.0947748893103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>644.7341456337901</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="C23" t="n">
-        <v>644.7341456337901</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="D23" t="n">
-        <v>644.7341456337901</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="E23" t="n">
-        <v>644.7341456337901</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="F23" t="n">
-        <v>644.7341456337901</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G23" t="n">
-        <v>393.3250068552463</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H23" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I23" t="n">
         <v>19.91160379126067</v>
@@ -6016,25 +6016,25 @@
         <v>991.8142391843265</v>
       </c>
       <c r="S23" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="T23" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U23" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V23" t="n">
-        <v>834.2330489061198</v>
+        <v>740.4051004057827</v>
       </c>
       <c r="W23" t="n">
-        <v>644.7341456337901</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="X23" t="n">
-        <v>644.7341456337901</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="Y23" t="n">
-        <v>644.7341456337901</v>
+        <v>488.9959616272389</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>382.2245769116523</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C24" t="n">
-        <v>207.7715476305252</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D24" t="n">
-        <v>207.7715476305252</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E24" t="n">
-        <v>207.7715476305252</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F24" t="n">
-        <v>207.7715476305252</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G24" t="n">
-        <v>121.1373785879038</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H24" t="n">
         <v>19.91160379126067</v>
@@ -6071,10 +6071,10 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K24" t="n">
-        <v>154.8483869327731</v>
+        <v>229.7230056322652</v>
       </c>
       <c r="L24" t="n">
-        <v>285.2517809137713</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M24" t="n">
         <v>531.6578778306221</v>
@@ -6092,28 +6092,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R24" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="S24" t="n">
-        <v>845.5175829656177</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="T24" t="n">
-        <v>845.5175829656177</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="U24" t="n">
-        <v>617.376685143395</v>
+        <v>744.3358001797214</v>
       </c>
       <c r="V24" t="n">
-        <v>382.2245769116523</v>
+        <v>509.1836919479787</v>
       </c>
       <c r="W24" t="n">
-        <v>382.2245769116523</v>
+        <v>257.774553169435</v>
       </c>
       <c r="X24" t="n">
-        <v>382.2245769116523</v>
+        <v>49.92305296390214</v>
       </c>
       <c r="Y24" t="n">
-        <v>382.2245769116523</v>
+        <v>19.91160379126067</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.7404559127024</v>
+        <v>483.650827799471</v>
       </c>
       <c r="C25" t="n">
-        <v>113.7404559127024</v>
+        <v>314.7146448715641</v>
       </c>
       <c r="D25" t="n">
-        <v>113.7404559127024</v>
+        <v>314.7146448715641</v>
       </c>
       <c r="E25" t="n">
-        <v>113.7404559127024</v>
+        <v>166.801551289171</v>
       </c>
       <c r="F25" t="n">
-        <v>113.7404559127024</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G25" t="n">
-        <v>113.7404559127024</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H25" t="n">
-        <v>113.7404559127024</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="J25" t="n">
         <v>19.91160379126067</v>
@@ -6165,7 +6165,7 @@
         <v>872.1091287361198</v>
       </c>
       <c r="P25" t="n">
-        <v>994.3689244155619</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q25" t="n">
         <v>995.5801895630334</v>
@@ -6177,22 +6177,22 @@
         <v>995.5801895630334</v>
       </c>
       <c r="T25" t="n">
-        <v>995.5801895630334</v>
+        <v>955.852545721545</v>
       </c>
       <c r="U25" t="n">
-        <v>995.5801895630334</v>
+        <v>955.852545721545</v>
       </c>
       <c r="V25" t="n">
-        <v>995.5801895630334</v>
+        <v>955.852545721545</v>
       </c>
       <c r="W25" t="n">
-        <v>744.1710507844896</v>
+        <v>704.4434069430012</v>
       </c>
       <c r="X25" t="n">
-        <v>516.1814998864722</v>
+        <v>704.4434069430012</v>
       </c>
       <c r="Y25" t="n">
-        <v>295.3889207429421</v>
+        <v>483.650827799471</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>331.4147713490322</v>
+        <v>586.5898605062828</v>
       </c>
       <c r="C26" t="n">
-        <v>331.4147713490322</v>
+        <v>586.5898605062828</v>
       </c>
       <c r="D26" t="n">
-        <v>331.4147713490322</v>
+        <v>586.5898605062828</v>
       </c>
       <c r="E26" t="n">
-        <v>331.4147713490322</v>
+        <v>586.5898605062828</v>
       </c>
       <c r="F26" t="n">
-        <v>80.00563257048842</v>
+        <v>335.180721727739</v>
       </c>
       <c r="G26" t="n">
-        <v>19.91160379126067</v>
+        <v>83.77158294919516</v>
       </c>
       <c r="H26" t="n">
-        <v>19.91160379126067</v>
+        <v>83.77158294919516</v>
       </c>
       <c r="I26" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J26" t="n">
-        <v>36.158773413422</v>
+        <v>68.98707935655311</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1001098394048</v>
+        <v>144.0758932219058</v>
       </c>
       <c r="L26" t="n">
-        <v>344.1561851044302</v>
+        <v>274.1319684869312</v>
       </c>
       <c r="M26" t="n">
         <v>520.538065403782</v>
@@ -6250,28 +6250,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R26" t="n">
-        <v>991.8142391843265</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S26" t="n">
-        <v>834.2330489061198</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="T26" t="n">
-        <v>834.2330489061198</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="U26" t="n">
-        <v>582.823910127576</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="V26" t="n">
-        <v>582.823910127576</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="W26" t="n">
-        <v>582.823910127576</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="X26" t="n">
-        <v>582.823910127576</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="Y26" t="n">
-        <v>582.823910127576</v>
+        <v>586.5898605062828</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.2203462834671</v>
+        <v>49.92305296390214</v>
       </c>
       <c r="C27" t="n">
-        <v>19.91160379126067</v>
+        <v>49.92305296390214</v>
       </c>
       <c r="D27" t="n">
-        <v>19.91160379126067</v>
+        <v>49.92305296390214</v>
       </c>
       <c r="E27" t="n">
         <v>19.91160379126067</v>
@@ -6329,28 +6329,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R27" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="S27" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="T27" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="U27" t="n">
-        <v>767.4392917408106</v>
+        <v>744.3358001797214</v>
       </c>
       <c r="V27" t="n">
-        <v>532.287183509068</v>
+        <v>509.1836919479787</v>
       </c>
       <c r="W27" t="n">
-        <v>532.287183509068</v>
+        <v>257.774553169435</v>
       </c>
       <c r="X27" t="n">
-        <v>324.4356833035351</v>
+        <v>49.92305296390214</v>
       </c>
       <c r="Y27" t="n">
-        <v>324.4356833035351</v>
+        <v>49.92305296390214</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.91160379126067</v>
+        <v>608.9712283071652</v>
       </c>
       <c r="C28" t="n">
-        <v>19.91160379126067</v>
+        <v>440.0350453792583</v>
       </c>
       <c r="D28" t="n">
-        <v>19.91160379126067</v>
+        <v>440.0350453792583</v>
       </c>
       <c r="E28" t="n">
-        <v>19.91160379126067</v>
+        <v>292.1219517968652</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="H28" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="I28" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J28" t="n">
-        <v>19.91160379126067</v>
+        <v>19.91160379126059</v>
       </c>
       <c r="K28" t="n">
         <v>117.8973084810498</v>
       </c>
       <c r="L28" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M28" t="n">
-        <v>499.949702993058</v>
+        <v>499.9497029930579</v>
       </c>
       <c r="N28" t="n">
-        <v>701.7397007055569</v>
+        <v>701.7397007055567</v>
       </c>
       <c r="O28" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361197</v>
       </c>
       <c r="P28" t="n">
         <v>994.3689244155619</v>
@@ -6417,19 +6417,19 @@
         <v>995.5801895630334</v>
       </c>
       <c r="U28" t="n">
-        <v>744.1710507844896</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="V28" t="n">
-        <v>492.7619120059458</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="W28" t="n">
-        <v>241.352773227402</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="X28" t="n">
-        <v>19.91160379126067</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.91160379126067</v>
+        <v>774.7876104195033</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>995.5801895630334</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="C29" t="n">
-        <v>995.5801895630334</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="D29" t="n">
-        <v>744.1710507844896</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="E29" t="n">
-        <v>744.1710507844896</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F29" t="n">
-        <v>492.7619120059458</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G29" t="n">
-        <v>241.352773227402</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H29" t="n">
         <v>19.91160379126067</v>
@@ -6463,10 +6463,10 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J29" t="n">
-        <v>36.158773413422</v>
+        <v>139.0112959740521</v>
       </c>
       <c r="K29" t="n">
-        <v>111.2475872787747</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L29" t="n">
         <v>344.1561851044302</v>
@@ -6508,7 +6508,7 @@
         <v>995.5801895630334</v>
       </c>
       <c r="Y29" t="n">
-        <v>995.5801895630334</v>
+        <v>774.1390201268921</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343.2990427336389</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C30" t="n">
-        <v>168.8460134525119</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D30" t="n">
         <v>19.91160379126067</v>
@@ -6548,19 +6548,19 @@
         <v>82.4427573815868</v>
       </c>
       <c r="L30" t="n">
-        <v>328.8488542984376</v>
+        <v>229.3257349505968</v>
       </c>
       <c r="M30" t="n">
-        <v>500.3803325157962</v>
+        <v>475.7318318674476</v>
       </c>
       <c r="N30" t="n">
-        <v>690.8603834694725</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O30" t="n">
-        <v>842.8926215948508</v>
+        <v>874.1701669096766</v>
       </c>
       <c r="P30" t="n">
-        <v>945.5788298460647</v>
+        <v>976.8563751608905</v>
       </c>
       <c r="Q30" t="n">
         <v>995.5801895630334</v>
@@ -6569,25 +6569,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S30" t="n">
-        <v>995.5801895630334</v>
+        <v>882.539688027148</v>
       </c>
       <c r="T30" t="n">
-        <v>995.5801895630334</v>
+        <v>882.539688027148</v>
       </c>
       <c r="U30" t="n">
-        <v>995.5801895630334</v>
+        <v>882.539688027148</v>
       </c>
       <c r="V30" t="n">
-        <v>760.4280813312907</v>
+        <v>647.3875797954054</v>
       </c>
       <c r="W30" t="n">
-        <v>719.2746785186609</v>
+        <v>395.9784410168616</v>
       </c>
       <c r="X30" t="n">
-        <v>719.2746785186609</v>
+        <v>188.1269408113287</v>
       </c>
       <c r="Y30" t="n">
-        <v>511.514379753707</v>
+        <v>188.1269408113287</v>
       </c>
     </row>
     <row r="31">
@@ -6624,13 +6624,13 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L31" t="n">
         <v>298.8117097895529</v>
       </c>
       <c r="M31" t="n">
-        <v>499.9497029930581</v>
+        <v>499.949702993058</v>
       </c>
       <c r="N31" t="n">
         <v>701.7397007055569</v>
@@ -6645,22 +6645,22 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R31" t="n">
-        <v>863.893051071894</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S31" t="n">
-        <v>655.9841062530076</v>
+        <v>787.671244744147</v>
       </c>
       <c r="T31" t="n">
-        <v>430.2400059485195</v>
+        <v>787.671244744147</v>
       </c>
       <c r="U31" t="n">
-        <v>178.8308671699757</v>
+        <v>536.2621059656032</v>
       </c>
       <c r="V31" t="n">
-        <v>19.91160379126067</v>
+        <v>284.8529671870593</v>
       </c>
       <c r="W31" t="n">
-        <v>19.91160379126067</v>
+        <v>33.44382840851554</v>
       </c>
       <c r="X31" t="n">
         <v>19.91160379126067</v>
@@ -6685,10 +6685,10 @@
         <v>271.3207425698045</v>
       </c>
       <c r="E32" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F32" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G32" t="n">
         <v>19.91160379126067</v>
@@ -6706,7 +6706,7 @@
         <v>111.2475872787747</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1319684869312</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M32" t="n">
         <v>520.538065403782</v>
@@ -6724,25 +6724,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R32" t="n">
-        <v>995.5801895630334</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="S32" t="n">
-        <v>995.5801895630334</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="T32" t="n">
-        <v>995.5801895630334</v>
+        <v>619.17074795177</v>
       </c>
       <c r="U32" t="n">
-        <v>995.5801895630334</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="V32" t="n">
-        <v>995.5801895630334</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="W32" t="n">
-        <v>774.1390201268921</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="X32" t="n">
-        <v>522.7298813483483</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="Y32" t="n">
         <v>271.3207425698045</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="C33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="D33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="E33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="F33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="G33" t="n">
         <v>19.91160379126067</v>
@@ -6782,49 +6782,49 @@
         <v>135.6005847439773</v>
       </c>
       <c r="K33" t="n">
-        <v>198.1317383343035</v>
+        <v>229.7230056322652</v>
       </c>
       <c r="L33" t="n">
-        <v>328.5351323153017</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M33" t="n">
-        <v>500.0666105326603</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N33" t="n">
-        <v>690.5466614863366</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O33" t="n">
-        <v>842.5788996117149</v>
+        <v>874.1701669096766</v>
       </c>
       <c r="P33" t="n">
-        <v>945.2651078629287</v>
+        <v>976.8563751608905</v>
       </c>
       <c r="Q33" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R33" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S33" t="n">
-        <v>822.4140914045286</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T33" t="n">
-        <v>822.4140914045286</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U33" t="n">
-        <v>822.4140914045286</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V33" t="n">
-        <v>822.4140914045286</v>
+        <v>532.287183509068</v>
       </c>
       <c r="W33" t="n">
-        <v>571.0049526259847</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="X33" t="n">
-        <v>363.1534524204519</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="Y33" t="n">
-        <v>155.393153655498</v>
+        <v>73.02654452499132</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.1353579576405</v>
+        <v>813.9317247327937</v>
       </c>
       <c r="C34" t="n">
-        <v>488.1353579576405</v>
+        <v>644.9955418048868</v>
       </c>
       <c r="D34" t="n">
-        <v>488.1353579576405</v>
+        <v>494.878902392551</v>
       </c>
       <c r="E34" t="n">
-        <v>488.1353579576405</v>
+        <v>494.878902392551</v>
       </c>
       <c r="F34" t="n">
-        <v>488.1353579576405</v>
+        <v>347.9889548946406</v>
       </c>
       <c r="G34" t="n">
-        <v>319.5016206171647</v>
+        <v>299.7257447125562</v>
       </c>
       <c r="H34" t="n">
-        <v>165.0078802035634</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="I34" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="J34" t="n">
-        <v>19.91160379126067</v>
+        <v>19.91160379126059</v>
       </c>
       <c r="K34" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L34" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M34" t="n">
         <v>499.9497029930579</v>
@@ -6882,28 +6882,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R34" t="n">
-        <v>863.893051071894</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S34" t="n">
-        <v>655.9841062530076</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="V34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="W34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="X34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="Y34" t="n">
-        <v>488.1353579576405</v>
+        <v>995.5801895630334</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="C35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="D35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="E35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="F35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="G35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075603</v>
+        <v>34.05974234075573</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061084</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711341</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M35" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N35" t="n">
-        <v>599.4362436734925</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974407</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237594</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R35" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S35" t="n">
-        <v>890.6286359297367</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="T35" t="n">
-        <v>890.6286359297367</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="U35" t="n">
-        <v>890.6286359297367</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="V35" t="n">
-        <v>692.5312363017287</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="W35" t="n">
-        <v>467.6250151073507</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="X35" t="n">
-        <v>242.7187939129727</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.81257271859473</v>
+        <v>289.3129731240954</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>740.566029332321</v>
+        <v>220.5941130477038</v>
       </c>
       <c r="C36" t="n">
-        <v>566.113000051194</v>
+        <v>220.5941130477038</v>
       </c>
       <c r="D36" t="n">
-        <v>417.1785903899428</v>
+        <v>220.5941130477038</v>
       </c>
       <c r="E36" t="n">
-        <v>257.9411353844873</v>
+        <v>61.35665804224831</v>
       </c>
       <c r="F36" t="n">
-        <v>111.4065774113722</v>
+        <v>61.35665804224831</v>
       </c>
       <c r="G36" t="n">
-        <v>17.81257271859473</v>
+        <v>61.35665804224831</v>
       </c>
       <c r="H36" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I36" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J36" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K36" t="n">
         <v>80.34372630892088</v>
       </c>
       <c r="L36" t="n">
-        <v>255.1748459799667</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973253</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510016</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763799</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P36" t="n">
-        <v>871.9048215275938</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R36" t="n">
-        <v>890.6286359297367</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="S36" t="n">
-        <v>740.566029332321</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="T36" t="n">
-        <v>740.566029332321</v>
+        <v>670.4065554364599</v>
       </c>
       <c r="U36" t="n">
-        <v>740.566029332321</v>
+        <v>670.4065554364599</v>
       </c>
       <c r="V36" t="n">
-        <v>740.566029332321</v>
+        <v>445.5003342420819</v>
       </c>
       <c r="W36" t="n">
-        <v>740.566029332321</v>
+        <v>220.5941130477038</v>
       </c>
       <c r="X36" t="n">
-        <v>740.566029332321</v>
+        <v>220.5941130477038</v>
       </c>
       <c r="Y36" t="n">
-        <v>740.566029332321</v>
+        <v>220.5941130477038</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.1263314253329</v>
+        <v>259.1677287107411</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1263314253329</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1263314253329</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1263314253329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1263314253329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G37" t="n">
-        <v>317.4025895444987</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H37" t="n">
-        <v>162.9088491308974</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I37" t="n">
-        <v>37.58844862320321</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K37" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L37" t="n">
-        <v>296.7126787168869</v>
+        <v>195.0714213037279</v>
       </c>
       <c r="M37" t="n">
-        <v>497.8506719203921</v>
+        <v>396.2094145072331</v>
       </c>
       <c r="N37" t="n">
-        <v>699.6406696328909</v>
+        <v>597.9994122197319</v>
       </c>
       <c r="O37" t="n">
-        <v>870.0100976634538</v>
+        <v>768.3688402502949</v>
       </c>
       <c r="P37" t="n">
-        <v>889.4173707822652</v>
+        <v>890.628635929737</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R37" t="n">
-        <v>758.9414974385973</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S37" t="n">
-        <v>551.0325526197108</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T37" t="n">
-        <v>326.1263314253329</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="U37" t="n">
-        <v>326.1263314253329</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="V37" t="n">
-        <v>326.1263314253329</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W37" t="n">
-        <v>326.1263314253329</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="X37" t="n">
-        <v>326.1263314253329</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="Y37" t="n">
-        <v>326.1263314253329</v>
+        <v>440.8161935409809</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C38" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="D38" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E38" t="n">
-        <v>450.6601137810088</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="F38" t="n">
-        <v>225.7538925866309</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="G38" t="n">
-        <v>225.7538925866309</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H38" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I38" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K38" t="n">
         <v>109.1485562061088</v>
@@ -7183,43 +7183,43 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M38" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N38" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974408</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P38" t="n">
-        <v>861.9898061237601</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q38" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R38" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S38" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="T38" t="n">
-        <v>675.5663349753868</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U38" t="n">
-        <v>675.5663349753868</v>
+        <v>692.5312363017289</v>
       </c>
       <c r="V38" t="n">
-        <v>675.5663349753868</v>
+        <v>692.5312363017289</v>
       </c>
       <c r="W38" t="n">
-        <v>675.5663349753868</v>
+        <v>692.5312363017289</v>
       </c>
       <c r="X38" t="n">
-        <v>675.5663349753868</v>
+        <v>692.5312363017289</v>
       </c>
       <c r="Y38" t="n">
-        <v>675.5663349753868</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H39" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I39" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J39" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K39" t="n">
         <v>80.34372630892088</v>
@@ -7262,43 +7262,43 @@
         <v>210.7471202899191</v>
       </c>
       <c r="M39" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973257</v>
       </c>
       <c r="N39" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510019</v>
       </c>
       <c r="O39" t="n">
-        <v>769.2186132763799</v>
+        <v>769.2186132763802</v>
       </c>
       <c r="P39" t="n">
-        <v>871.9048215275938</v>
+        <v>871.9048215275941</v>
       </c>
       <c r="Q39" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R39" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S39" t="n">
-        <v>845.7675624577259</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T39" t="n">
-        <v>648.6489735255381</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U39" t="n">
-        <v>648.6489735255381</v>
+        <v>890.628635929737</v>
       </c>
       <c r="V39" t="n">
-        <v>648.6489735255381</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="W39" t="n">
-        <v>648.6489735255381</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="X39" t="n">
-        <v>440.7974733200052</v>
+        <v>232.964693335448</v>
       </c>
       <c r="Y39" t="n">
-        <v>233.0371745550513</v>
+        <v>25.20439457049412</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.2201102309549</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="C40" t="n">
-        <v>17.81257271859473</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="D40" t="n">
-        <v>17.81257271859473</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="E40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J40" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K40" t="n">
-        <v>17.81257271859473</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L40" t="n">
-        <v>193.8601561562561</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M40" t="n">
-        <v>394.9981493597612</v>
+        <v>394.9981493597616</v>
       </c>
       <c r="N40" t="n">
-        <v>596.78814707226</v>
+        <v>596.7881470722604</v>
       </c>
       <c r="O40" t="n">
-        <v>767.157575102823</v>
+        <v>767.1575751028233</v>
       </c>
       <c r="P40" t="n">
-        <v>889.4173707822652</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q40" t="n">
-        <v>890.6286359297367</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R40" t="n">
-        <v>758.9414974385973</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S40" t="n">
-        <v>551.0325526197108</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="T40" t="n">
-        <v>326.1263314253329</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="U40" t="n">
-        <v>326.1263314253329</v>
+        <v>390.6318874953659</v>
       </c>
       <c r="V40" t="n">
-        <v>326.1263314253329</v>
+        <v>390.6318874953659</v>
       </c>
       <c r="W40" t="n">
-        <v>101.2201102309549</v>
+        <v>390.6318874953659</v>
       </c>
       <c r="X40" t="n">
-        <v>101.2201102309549</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.2201102309549</v>
+        <v>165.7256663009879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C41" t="n">
-        <v>692.5312363017288</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="D41" t="n">
-        <v>692.5312363017288</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E41" t="n">
         <v>467.6250151073508</v>
@@ -7411,52 +7411,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075573</v>
       </c>
       <c r="K41" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061084</v>
       </c>
       <c r="L41" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M41" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N41" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P41" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q41" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R41" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S41" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="T41" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U41" t="n">
-        <v>890.6286359297369</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="V41" t="n">
-        <v>890.6286359297369</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="W41" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X41" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y41" t="n">
-        <v>890.6286359297369</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.746982379846</v>
+        <v>351.5030570051773</v>
       </c>
       <c r="C42" t="n">
-        <v>166.746982379846</v>
+        <v>177.0500277240502</v>
       </c>
       <c r="D42" t="n">
-        <v>17.81257271859474</v>
+        <v>177.0500277240502</v>
       </c>
       <c r="E42" t="n">
         <v>17.81257271859474</v>
@@ -7490,52 +7490,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J42" t="n">
-        <v>62.24029840864262</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K42" t="n">
-        <v>124.7714519989688</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L42" t="n">
-        <v>255.1748459799669</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O42" t="n">
-        <v>769.2186132763801</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P42" t="n">
-        <v>871.904821527594</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q42" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R42" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S42" t="n">
-        <v>890.6286359297369</v>
+        <v>773.5278671317431</v>
       </c>
       <c r="T42" t="n">
-        <v>890.6286359297369</v>
+        <v>576.4092781995553</v>
       </c>
       <c r="U42" t="n">
-        <v>890.6286359297369</v>
+        <v>576.4092781995553</v>
       </c>
       <c r="V42" t="n">
-        <v>665.7224147353588</v>
+        <v>576.4092781995553</v>
       </c>
       <c r="W42" t="n">
-        <v>440.8161935409808</v>
+        <v>351.5030570051773</v>
       </c>
       <c r="X42" t="n">
-        <v>232.964693335448</v>
+        <v>351.5030570051773</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.746982379846</v>
+        <v>351.5030570051773</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.9298355918287</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="C43" t="n">
-        <v>444.9298355918287</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="D43" t="n">
-        <v>444.9298355918287</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="E43" t="n">
-        <v>297.0167420094356</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="F43" t="n">
-        <v>150.1267945115252</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="G43" t="n">
         <v>143.132973226289</v>
@@ -7575,46 +7575,46 @@
         <v>17.81257271859474</v>
       </c>
       <c r="L43" t="n">
-        <v>193.8601561562563</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M43" t="n">
-        <v>394.9981493597614</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N43" t="n">
-        <v>596.7881470722602</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O43" t="n">
-        <v>767.1575751028232</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P43" t="n">
-        <v>889.4173707822654</v>
+        <v>890.628635929737</v>
       </c>
       <c r="Q43" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R43" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S43" t="n">
-        <v>890.6286359297369</v>
+        <v>761.579152955521</v>
       </c>
       <c r="T43" t="n">
-        <v>890.6286359297369</v>
+        <v>536.6729317611429</v>
       </c>
       <c r="U43" t="n">
-        <v>890.6286359297369</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="V43" t="n">
-        <v>890.6286359297369</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="W43" t="n">
-        <v>890.6286359297369</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="X43" t="n">
-        <v>665.7224147353588</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.9298355918287</v>
+        <v>311.7667105667648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="C44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="D44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="E44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="F44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="G44" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="H44" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="I44" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="J44" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075602</v>
       </c>
       <c r="K44" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L44" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711308</v>
       </c>
       <c r="M44" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704826</v>
       </c>
       <c r="N44" t="n">
-        <v>599.4362436734924</v>
+        <v>599.4362436734893</v>
       </c>
       <c r="O44" t="n">
-        <v>759.7050708974406</v>
+        <v>759.7050708974374</v>
       </c>
       <c r="P44" t="n">
-        <v>861.9898061237598</v>
+        <v>861.9898061237567</v>
       </c>
       <c r="Q44" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="R44" t="n">
-        <v>886.8626855510302</v>
+        <v>886.8626855510271</v>
       </c>
       <c r="S44" t="n">
-        <v>729.2814952728233</v>
+        <v>729.2814952728204</v>
       </c>
       <c r="T44" t="n">
-        <v>514.2191943184735</v>
+        <v>514.2191943184705</v>
       </c>
       <c r="U44" t="n">
-        <v>289.3129731240954</v>
+        <v>289.3129731240932</v>
       </c>
       <c r="V44" t="n">
-        <v>289.3129731240954</v>
+        <v>242.718793912972</v>
       </c>
       <c r="W44" t="n">
-        <v>64.40675192971733</v>
+        <v>242.718793912972</v>
       </c>
       <c r="X44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
       <c r="Y44" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912972</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.7224147353589</v>
+        <v>562.2838352020933</v>
       </c>
       <c r="C45" t="n">
-        <v>657.00173488309</v>
+        <v>562.2838352020933</v>
       </c>
       <c r="D45" t="n">
-        <v>508.0673252218388</v>
+        <v>562.2838352020933</v>
       </c>
       <c r="E45" t="n">
-        <v>348.8298702163833</v>
+        <v>403.0463801966378</v>
       </c>
       <c r="F45" t="n">
-        <v>202.2953122432682</v>
+        <v>256.5118222235227</v>
       </c>
       <c r="G45" t="n">
-        <v>64.82183753498329</v>
+        <v>119.0383475152378</v>
       </c>
       <c r="H45" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="I45" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="J45" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="K45" t="n">
-        <v>80.34372630892088</v>
+        <v>80.34372630892082</v>
       </c>
       <c r="L45" t="n">
-        <v>210.7471202899191</v>
+        <v>210.747120289919</v>
       </c>
       <c r="M45" t="n">
-        <v>382.2785985072777</v>
+        <v>382.2785985072776</v>
       </c>
       <c r="N45" t="n">
-        <v>572.758649460954</v>
+        <v>572.7586494609538</v>
       </c>
       <c r="O45" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763771</v>
       </c>
       <c r="P45" t="n">
-        <v>871.9048215275941</v>
+        <v>871.904821527591</v>
       </c>
       <c r="Q45" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="R45" t="n">
-        <v>890.628635929737</v>
+        <v>867.5251443686448</v>
       </c>
       <c r="S45" t="n">
-        <v>890.628635929737</v>
+        <v>867.5251443686448</v>
       </c>
       <c r="T45" t="n">
-        <v>890.628635929737</v>
+        <v>867.5251443686448</v>
       </c>
       <c r="U45" t="n">
-        <v>665.7224147353589</v>
+        <v>867.5251443686448</v>
       </c>
       <c r="V45" t="n">
-        <v>665.7224147353589</v>
+        <v>642.6189231742675</v>
       </c>
       <c r="W45" t="n">
-        <v>665.7224147353589</v>
+        <v>642.6189231742675</v>
       </c>
       <c r="X45" t="n">
-        <v>665.7224147353589</v>
+        <v>642.6189231742675</v>
       </c>
       <c r="Y45" t="n">
-        <v>665.7224147353589</v>
+        <v>642.6189231742675</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.9099723466028</v>
+        <v>669.8360567862038</v>
       </c>
       <c r="C46" t="n">
-        <v>215.9099723466028</v>
+        <v>500.8998738582969</v>
       </c>
       <c r="D46" t="n">
-        <v>65.79333293426708</v>
+        <v>350.7832344459612</v>
       </c>
       <c r="E46" t="n">
-        <v>17.81257271859474</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="F46" t="n">
-        <v>17.81257271859474</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="G46" t="n">
-        <v>17.81257271859474</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="H46" t="n">
-        <v>17.81257271859474</v>
+        <v>143.1329732262889</v>
       </c>
       <c r="I46" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="J46" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="K46" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859468</v>
       </c>
       <c r="L46" t="n">
-        <v>193.8601561562564</v>
+        <v>195.0714213037249</v>
       </c>
       <c r="M46" t="n">
-        <v>394.9981493597616</v>
+        <v>396.20941450723</v>
       </c>
       <c r="N46" t="n">
-        <v>596.7881470722604</v>
+        <v>597.9994122197288</v>
       </c>
       <c r="O46" t="n">
-        <v>767.1575751028233</v>
+        <v>768.3688402502918</v>
       </c>
       <c r="P46" t="n">
-        <v>889.4173707822655</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="Q46" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="R46" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="S46" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="T46" t="n">
-        <v>665.7224147353589</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="U46" t="n">
-        <v>440.8161935409809</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="V46" t="n">
-        <v>440.8161935409809</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="W46" t="n">
-        <v>215.9099723466028</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="X46" t="n">
-        <v>215.9099723466028</v>
+        <v>890.6286359297339</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.9099723466028</v>
+        <v>669.8360567862038</v>
       </c>
     </row>
   </sheetData>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8865,10 +8865,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>31.11512638411119</v>
+        <v>131.3140858156876</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.87649059600795</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.87649059600793</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3140858156876</v>
+        <v>32.33862653307233</v>
       </c>
       <c r="Q16" t="n">
         <v>64.11945822879035</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>9.23347882251322</v>
+        <v>54.10996941852118</v>
       </c>
       <c r="K18" t="n">
-        <v>14.62342348597383</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>30.25306711003395</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L19" t="n">
-        <v>158.7822240432008</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
@@ -9339,7 +9339,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>131.3140858156876</v>
       </c>
       <c r="Q19" t="n">
         <v>64.11945822879035</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>44.87649059600864</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>44.87649059600767</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L22" t="n">
-        <v>158.7822240432008</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9576,7 +9576,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>131.3140858156883</v>
       </c>
       <c r="Q22" t="n">
         <v>64.11945822879035</v>
@@ -9719,13 +9719,13 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K24" t="n">
-        <v>73.13699954665287</v>
+        <v>148.7679275259378</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>75.63092797928499</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775137</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>33.15990499306173</v>
       </c>
       <c r="K26" t="n">
-        <v>103.8914369299293</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>70.73153193686761</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>103.8914369299294</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>103.8914369299294</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>117.1744474099521</v>
+        <v>16.64604402829477</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>75.63092797928499</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>56.49095551835808</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.5934801159857</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>33.15990499306173</v>
+        <v>103.8914369299294</v>
       </c>
       <c r="M32" t="n">
-        <v>70.73153193686761</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>31.91037100804219</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.91037100804217</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>44.87649059600773</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>44.87649059600805</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,10 +10746,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>158.7822240432011</v>
       </c>
       <c r="M37" t="n">
         <v>178.5096609094456</v>
@@ -10761,10 +10761,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>31.11512638411097</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>44.87649059600807</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>44.8764905960077</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>157.5587238942396</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>74.61822397951586</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>54.10996941852118</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>44.87649059600805</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,7 +11223,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L43" t="n">
-        <v>157.5587238942398</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
@@ -11235,10 +11235,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>131.3140858156877</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>44.87649059600506</v>
       </c>
       <c r="P45" t="n">
-        <v>44.87649059600801</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L46" t="n">
-        <v>157.55872389424</v>
+        <v>158.7822240431981</v>
       </c>
       <c r="M46" t="n">
         <v>178.5096609094456</v>
@@ -11475,7 +11475,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.0766826810463</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H11" t="n">
         <v>315.6487261371466</v>
@@ -23311,10 +23311,10 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T11" t="n">
-        <v>212.9116779448064</v>
+        <v>16.79525231307835</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636265</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>173.614675046741</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.5807796736194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>55.49669074582715</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>103.4127607334458</v>
       </c>
       <c r="G12" t="n">
         <v>136.0987399612021</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
-        <v>3.202329861566341</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699104</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848538</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23469,22 +23469,22 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
-        <v>223.4866593014432</v>
+        <v>0.829500319008929</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2621068442334</v>
+        <v>90.14568121250542</v>
       </c>
       <c r="V13" t="n">
-        <v>51.9487120617606</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W13" t="n">
         <v>63.86583935415678</v>
       </c>
       <c r="X13" t="n">
-        <v>3.052496406602927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G14" t="n">
         <v>190.3190972947054</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S14" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9116779448064</v>
+        <v>172.8006306885031</v>
       </c>
       <c r="U14" t="n">
         <v>251.1595344087969</v>
       </c>
       <c r="V14" t="n">
-        <v>135.3641237133266</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>134.2371538119887</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.0987399612021</v>
@@ -23627,22 +23627,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1474030428659</v>
+        <v>77.17706660527347</v>
       </c>
       <c r="U15" t="n">
         <v>3.202329861566341</v>
       </c>
       <c r="V15" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>29.03782417848538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0133160260979</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.640924108630117</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
-        <v>0.829500319008929</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U16" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415678</v>
       </c>
       <c r="X16" t="n">
-        <v>3.052496406602927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>306.5981660831213</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>184.2188867592773</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>190.3190972947054</v>
+        <v>210.8426404827036</v>
       </c>
       <c r="H17" t="n">
-        <v>92.99156715471241</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636265</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736194</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>46.53917216822466</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>3.202329861566398</v>
+        <v>132.3433983005341</v>
       </c>
       <c r="V18" t="n">
-        <v>10.1434281669911</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>199.5032387665431</v>
+        <v>29.03782417848538</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.54664009332367</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.947399967071</v>
@@ -23910,7 +23910,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
         <v>19.57811714556239</v>
@@ -23943,19 +23943,19 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8295003190089858</v>
+        <v>27.37023366971511</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415678</v>
       </c>
       <c r="X19" t="n">
-        <v>3.052496406602984</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>142.6157327885734</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>201.0141390723557</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947052</v>
       </c>
       <c r="H20" t="n">
-        <v>315.6487261371466</v>
+        <v>92.99156715471219</v>
       </c>
       <c r="I20" t="n">
         <v>120.7842216425874</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1595344087969</v>
+        <v>214.7767780274131</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877005</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.5641610610053</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>49.32936072845706</v>
       </c>
       <c r="U21" t="n">
-        <v>3.202329861566398</v>
+        <v>3.20232986156617</v>
       </c>
       <c r="V21" t="n">
-        <v>10.1434281669911</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>29.03782417848544</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>102.1086394559162</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I22" t="n">
         <v>124.0671965026173</v>
@@ -24177,7 +24177,7 @@
         <v>130.370267106228</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.7631452752038</v>
       </c>
       <c r="T22" t="n">
         <v>223.4866593014432</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415661</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802492</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>191.3775788748513</v>
       </c>
       <c r="G23" t="n">
-        <v>164.0812088863813</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H23" t="n">
-        <v>66.75367874638823</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T23" t="n">
         <v>212.9116779448064</v>
@@ -24265,10 +24265,10 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>78.85721107937655</v>
       </c>
       <c r="W23" t="n">
-        <v>161.6370544778066</v>
+        <v>100.3459213266547</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>50.33091260900682</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I24" t="n">
         <v>46.53917216822466</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T24" t="n">
         <v>195.1474030428659</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.9713610963893</v>
       </c>
     </row>
     <row r="25">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.947399967071</v>
@@ -24384,10 +24384,10 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I25" t="n">
-        <v>50.75475004795234</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
-        <v>223.4866593014432</v>
+        <v>184.1562918983696</v>
       </c>
       <c r="U25" t="n">
         <v>286.2621068442334</v>
@@ -24429,7 +24429,7 @@
         <v>37.62795094583265</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133.8387942727222</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,13 +24457,13 @@
         <v>157.9809983509531</v>
       </c>
       <c r="G26" t="n">
-        <v>353.4831677857042</v>
+        <v>164.0812088863813</v>
       </c>
       <c r="H26" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I26" t="n">
-        <v>120.7842216425874</v>
+        <v>57.56284227623228</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U26" t="n">
-        <v>2.264487018038523</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>37.76284392103136</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>127.9337457744859</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>148.5619805314415</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>15.67376189072266</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.947399967071</v>
@@ -24621,7 +24621,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I28" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>19.57811714556239</v>
@@ -24657,19 +24657,19 @@
         <v>223.4866593014432</v>
       </c>
       <c r="U28" t="n">
-        <v>37.36705945347501</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V28" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>37.62795094583265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>6.482897647257261</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>105.7879942299246</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F29" t="n">
         <v>157.9809983509531</v>
       </c>
       <c r="G29" t="n">
-        <v>164.0812088863813</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H29" t="n">
-        <v>96.42196839536669</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I29" t="n">
         <v>120.7842216425874</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>167.0111809142737</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24809,7 +24809,7 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5619805314415</v>
+        <v>36.65188401091498</v>
       </c>
       <c r="T30" t="n">
         <v>195.1474030428659</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>210.9531143764161</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U31" t="n">
         <v>37.36705945347501</v>
       </c>
       <c r="V31" t="n">
-        <v>94.80757257890008</v>
+        <v>3.242595933069651</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>37.62795094583265</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>212.3127530179548</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863813</v>
       </c>
       <c r="H32" t="n">
         <v>315.6487261371466</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1595344087969</v>
+        <v>155.6830764714094</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>78.85721107937655</v>
       </c>
       <c r="W32" t="n">
-        <v>130.0142109756331</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>120.8360532877107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>1.972005595607101</v>
+        <v>83.51494863480872</v>
       </c>
       <c r="H33" t="n">
         <v>100.2135170486767</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T33" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>2.799935770161255</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.1668218868075</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>57.31639848902978</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U34" t="n">
         <v>286.2621068442334</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>336.6056042444692</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H35" t="n">
         <v>315.6487261371466</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.1595344087969</v>
       </c>
       <c r="V35" t="n">
-        <v>131.635832838407</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0739416960349</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5807796736194</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.44067531535234</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2135170486767</v>
+        <v>57.10487257825964</v>
       </c>
       <c r="I36" t="n">
         <v>46.53917216822466</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>74.7391793129721</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>158.3108955050452</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8295003190089858</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U37" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139375</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0766826810464</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>184.2188867592773</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H38" t="n">
-        <v>109.7868194677908</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I38" t="n">
         <v>120.7842216425874</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1595344087969</v>
+        <v>58.77139965198862</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>159.215280016487</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25490,7 +25490,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S39" t="n">
-        <v>104.1495177941509</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U39" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>84.67335896139127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8295003190089858</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2621068442334</v>
+        <v>219.7523402473378</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>63.86583935415683</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>3.052496406602899</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>169.1564661392795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>184.2188867592772</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>156.0053783754247</v>
@@ -25684,13 +25684,13 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636262</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>156.8528339606048</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25757,25 +25757,25 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S42" t="n">
-        <v>148.5619805314415</v>
+        <v>32.63221942142748</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V42" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>29.03782417848538</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>140.1271619312584</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>160.0235168946871</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.9488030094653</v>
@@ -25836,13 +25836,13 @@
         <v>130.370267106228</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8298553706975</v>
+        <v>78.07086722622363</v>
       </c>
       <c r="T43" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2621068442334</v>
+        <v>63.6049478617991</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>3.052496406602927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947061</v>
       </c>
       <c r="H44" t="n">
         <v>315.6487261371466</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.50237542636262</v>
+        <v>28.50237542636339</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>281.6240210511249</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>323.6028632594576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>87.00144655741492</v>
       </c>
       <c r="C45" t="n">
-        <v>164.0750259345695</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>148.5619805314415</v>
@@ -26000,10 +26000,10 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U45" t="n">
-        <v>3.202329861566312</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699178</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.93301003305355</v>
+        <v>93.80900704855894</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.947399967071</v>
       </c>
       <c r="H46" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>19.57811714556239</v>
@@ -26076,22 +26076,22 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8295003190089005</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U46" t="n">
-        <v>63.6049478617991</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>63.86583935415675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>327897.5868709115</v>
+        <v>1053011.420055887</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>327897.5868709115</v>
+        <v>1053011.420055887</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>1053011.420055887</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469706.6361366517</v>
+        <v>469706.6361366516</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469706.6361366516</v>
+        <v>469706.6361366517</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469706.6361366516</v>
+        <v>469706.6361366517</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>469706.6361366515</v>
+        <v>469706.6361366519</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492475.8491520733</v>
+        <v>492475.8491520731</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469706.6361366517</v>
+        <v>469706.6361366516</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469706.6361366515</v>
+        <v>469706.6361366517</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469706.6361366518</v>
+        <v>469706.636136651</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.986294371</v>
       </c>
       <c r="C2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
+        <v>210546.9562318542</v>
+      </c>
+      <c r="F2" t="n">
         <v>210546.9562318541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>210546.9562318541</v>
+      </c>
+      <c r="H2" t="n">
         <v>210546.9562318542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>210546.9562318542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>210546.9562318541</v>
       </c>
       <c r="I2" t="n">
         <v>218723.4232178565</v>
@@ -26340,13 +26340,13 @@
         <v>218723.4232178565</v>
       </c>
       <c r="K2" t="n">
-        <v>218723.4232178566</v>
+        <v>218723.4232178565</v>
       </c>
       <c r="L2" t="n">
-        <v>218723.4232178564</v>
+        <v>218723.4232178565</v>
       </c>
       <c r="M2" t="n">
-        <v>210546.956231854</v>
+        <v>210546.9562318542</v>
       </c>
       <c r="N2" t="n">
         <v>210546.9562318541</v>
@@ -26355,7 +26355,7 @@
         <v>210546.9562318541</v>
       </c>
       <c r="P2" t="n">
-        <v>210546.9562318542</v>
+        <v>210546.9562318538</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.55994189677869e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.062368439510465e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>6977.205523429974</v>
+        <v>6977.205523429914</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415055</v>
+        <v>48948.46790415052</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.761723967920477e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544015</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544015</v>
+        <v>414772.398612959</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544015</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
         <v>10524.53639628628</v>
       </c>
       <c r="F4" t="n">
-        <v>10524.53639628628</v>
+        <v>10524.53639628627</v>
       </c>
       <c r="G4" t="n">
         <v>10524.53639628627</v>
       </c>
       <c r="H4" t="n">
-        <v>10524.53639628627</v>
+        <v>10524.53639628629</v>
       </c>
       <c r="I4" t="n">
         <v>15476.93730329909</v>
@@ -26450,16 +26450,16 @@
         <v>15476.93730329909</v>
       </c>
       <c r="M4" t="n">
-        <v>10524.53639628627</v>
+        <v>10524.53639628628</v>
       </c>
       <c r="N4" t="n">
-        <v>10524.53639628627</v>
+        <v>10524.53639628628</v>
       </c>
       <c r="O4" t="n">
         <v>10524.53639628628</v>
       </c>
       <c r="P4" t="n">
-        <v>10524.53639628628</v>
+        <v>10524.53639628621</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>26153.48139947167</v>
       </c>
       <c r="G5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947167</v>
       </c>
       <c r="H5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947168</v>
       </c>
       <c r="I5" t="n">
         <v>27748.74501469778</v>
@@ -26502,16 +26502,16 @@
         <v>27748.74501469778</v>
       </c>
       <c r="M5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947167</v>
       </c>
       <c r="N5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947167</v>
       </c>
       <c r="O5" t="n">
         <v>26153.48139947167</v>
       </c>
       <c r="P5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947162</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.7324891509</v>
+        <v>2157.851902730992</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.7324891509</v>
+        <v>2157.85190273105</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.7324891509</v>
+        <v>2157.851902731108</v>
       </c>
       <c r="E6" t="n">
-        <v>-357550.7147833083</v>
+        <v>-368506.4428375584</v>
       </c>
       <c r="F6" t="n">
-        <v>173868.9384360962</v>
+        <v>162913.2103818461</v>
       </c>
       <c r="G6" t="n">
-        <v>173868.9384360961</v>
+        <v>162913.2103818461</v>
       </c>
       <c r="H6" t="n">
-        <v>173868.9384360962</v>
+        <v>162913.210381846</v>
       </c>
       <c r="I6" t="n">
-        <v>168520.5353764297</v>
+        <v>157936.4649124525</v>
       </c>
       <c r="J6" t="n">
-        <v>175497.7408998597</v>
+        <v>164913.6704358824</v>
       </c>
       <c r="K6" t="n">
-        <v>175497.7408998597</v>
+        <v>164913.6704358824</v>
       </c>
       <c r="L6" t="n">
-        <v>175497.7408998596</v>
+        <v>164913.6704358824</v>
       </c>
       <c r="M6" t="n">
-        <v>124920.4705319456</v>
+        <v>113964.7424776956</v>
       </c>
       <c r="N6" t="n">
-        <v>173868.9384360961</v>
+        <v>162913.2103818461</v>
       </c>
       <c r="O6" t="n">
-        <v>173868.9384360961</v>
+        <v>162913.2103818461</v>
       </c>
       <c r="P6" t="n">
-        <v>173868.9384360962</v>
+        <v>162913.2103818459</v>
       </c>
     </row>
   </sheetData>
@@ -26807,7 +26807,7 @@
         <v>222.6571589824342</v>
       </c>
       <c r="H4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I4" t="n">
         <v>248.8950473907584</v>
@@ -26822,16 +26822,16 @@
         <v>248.8950473907584</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="N4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="O4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="P4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824335</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.487947861713953e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>26.23788840832418</v>
+        <v>26.23788840832395</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>196.4192705741102</v>
+        <v>196.41927057411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.056382050322033e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.487947861713953e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,34 +27815,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34374,7 +34374,7 @@
         <v>295.93713777766</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1361879649624</v>
+        <v>367.136187964959</v>
       </c>
       <c r="M44" t="n">
         <v>408.5097486811634</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>182.7418195035384</v>
@@ -35585,10 +35585,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
-        <v>19.60330618061771</v>
+        <v>119.8022656121941</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.16278140436984</v>
+        <v>108.0392720003778</v>
       </c>
       <c r="L15" t="n">
         <v>131.7205999808062</v>
@@ -35740,7 +35740,7 @@
         <v>192.4040918724002</v>
       </c>
       <c r="O15" t="n">
-        <v>198.4444078943698</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P15" t="n">
         <v>103.7234426779939</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L16" t="n">
         <v>182.7418195035384</v>
@@ -35822,7 +35822,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8022656121941</v>
+        <v>20.82680632957884</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662715</v>
       </c>
       <c r="K17" t="n">
         <v>75.84728673267949</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.87649059600796</v>
       </c>
       <c r="K18" t="n">
-        <v>77.78620489034367</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L18" t="n">
         <v>131.7205999808062</v>
@@ -35974,7 +35974,7 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N18" t="n">
-        <v>222.6571589824342</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O18" t="n">
         <v>153.5679172983619</v>
@@ -36047,7 +36047,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>179.0493420051847</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M19" t="n">
         <v>203.1696901045507</v>
@@ -36059,7 +36059,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P19" t="n">
-        <v>123.4947431105476</v>
+        <v>119.8022656121941</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M21" t="n">
-        <v>173.2641194114734</v>
+        <v>218.140610007482</v>
       </c>
       <c r="N21" t="n">
         <v>192.4040918724002</v>
@@ -36217,7 +36217,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P21" t="n">
-        <v>148.5999332740015</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
         <v>18.91294384054839</v>
@@ -36284,7 +36284,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>179.0493420051847</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M22" t="n">
         <v>203.1696901045507</v>
@@ -36296,7 +36296,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P22" t="n">
-        <v>123.4947431105476</v>
+        <v>119.8022656121948</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>136.2997809510227</v>
+        <v>211.9307089303076</v>
       </c>
       <c r="L24" t="n">
         <v>131.7205999808062</v>
       </c>
       <c r="M24" t="n">
-        <v>248.8950473907584</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N24" t="n">
         <v>192.4040918724002</v>
@@ -36536,7 +36536,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.223500148961108</v>
+        <v>1.223500148961019</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.41128244662761</v>
+        <v>49.57118743968934</v>
       </c>
       <c r="K26" t="n">
-        <v>179.7387236626088</v>
+        <v>75.84728673267949</v>
       </c>
       <c r="L26" t="n">
         <v>131.3697729949752</v>
       </c>
       <c r="M26" t="n">
-        <v>178.1635154538907</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="N26" t="n">
         <v>185.7067999020271</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>16.41128244662761</v>
+        <v>120.302719376557</v>
       </c>
       <c r="K29" t="n">
         <v>75.84728673267949</v>
       </c>
       <c r="L29" t="n">
-        <v>235.2612099249045</v>
+        <v>131.3697729949752</v>
       </c>
       <c r="M29" t="n">
         <v>178.1635154538907</v>
@@ -36916,13 +36916,13 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L30" t="n">
+        <v>148.366644009101</v>
+      </c>
+      <c r="M30" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="M30" t="n">
-        <v>173.2641194114734</v>
-      </c>
       <c r="N30" t="n">
-        <v>192.4040918724002</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="O30" t="n">
         <v>153.5679172983619</v>
@@ -36931,7 +36931,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.50642395653409</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>75.84728673267949</v>
       </c>
       <c r="L32" t="n">
-        <v>164.5296779880369</v>
+        <v>235.2612099249045</v>
       </c>
       <c r="M32" t="n">
-        <v>248.8950473907584</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N32" t="n">
         <v>185.7067999020271</v>
@@ -37150,7 +37150,7 @@
         <v>116.8575565178956</v>
       </c>
       <c r="K33" t="n">
-        <v>63.16278140436984</v>
+        <v>95.07315241241203</v>
       </c>
       <c r="L33" t="n">
         <v>131.7205999808062</v>
@@ -37168,7 +37168,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.82331484859056</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M34" t="n">
-        <v>203.1696901045506</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N34" t="n">
         <v>203.8282805176756</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662726</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267949</v>
@@ -37390,7 +37390,7 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L36" t="n">
-        <v>176.597090576814</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M36" t="n">
         <v>173.2641194114734</v>
@@ -37405,7 +37405,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655645</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051851</v>
       </c>
       <c r="M37" t="n">
         <v>203.1696901045507</v>
@@ -37481,10 +37481,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P37" t="n">
-        <v>19.60330618061748</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q38" t="n">
-        <v>28.92811091512785</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M39" t="n">
-        <v>173.2641194114734</v>
+        <v>218.1406100074814</v>
       </c>
       <c r="N39" t="n">
         <v>192.4040918724002</v>
       </c>
       <c r="O39" t="n">
-        <v>198.4444078943696</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P39" t="n">
         <v>103.7234426779939</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L40" t="n">
-        <v>177.8258418562236</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M40" t="n">
-        <v>203.1696901045507</v>
+        <v>99.27825317462087</v>
       </c>
       <c r="N40" t="n">
         <v>203.8282805176756</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662726</v>
       </c>
       <c r="K41" t="n">
         <v>75.84728673267949</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>44.87649059600796</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>63.16278140436984</v>
@@ -37879,7 +37879,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655645</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>177.8258418562238</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M43" t="n">
         <v>203.1696901045507</v>
@@ -37955,10 +37955,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>123.4947431105476</v>
+        <v>119.8022656121943</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>75.84728673267949</v>
       </c>
       <c r="L44" t="n">
-        <v>131.3697729949752</v>
+        <v>131.3697729949718</v>
       </c>
       <c r="M44" t="n">
         <v>178.1635154538907</v>
@@ -38110,10 +38110,10 @@
         <v>192.4040918724002</v>
       </c>
       <c r="O45" t="n">
-        <v>153.5679172983619</v>
+        <v>198.444407894367</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5999332740019</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q45" t="n">
         <v>18.91294384054839</v>
@@ -38180,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>177.8258418562239</v>
+        <v>179.049342005182</v>
       </c>
       <c r="M46" t="n">
         <v>203.1696901045507</v>
@@ -38195,7 +38195,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
